--- a/ru/downloads/data-excel/5.3.1.xlsx
+++ b/ru/downloads/data-excel/5.3.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="109">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -28,18 +28,9 @@
     <t xml:space="preserve">5.3.1 Доля женщин в возрасте от 20 до 24 лет, вступивших в брак или союз до 15 лет и до 18 лет </t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
     <t>5.3.1 Proportion of women aged 20–24 years who were married or in a union before age 15 and before age 18</t>
   </si>
   <si>
-    <t>According to Multiple Indicator Cluster Survey, 2018.</t>
-  </si>
-  <si>
     <t>Процентная доля вступивших в (не)официальный брак до 15 лет</t>
   </si>
   <si>
@@ -320,6 +311,36 @@
   </si>
   <si>
     <t>15 жашка чейин расмий (расмий эмес) никеге тургандардын пайыздык үлүшү</t>
+  </si>
+  <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
+    <t>(7,5)</t>
+  </si>
+  <si>
+    <t>(7,8)</t>
+  </si>
+  <si>
+    <t>15,5</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>По данным кластерного обследования по многим показателям, 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t>According to Multiple Indicator Cluster Survey, 2018, 2023.</t>
   </si>
 </sst>
 </file>
@@ -329,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +422,14 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -456,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,6 +574,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -851,970 +886,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F374"/>
+  <dimension ref="A1:F375"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="1" max="3" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="17">
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" s="17">
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="17">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="31" t="s">
+        <v>99</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="31" t="s">
+        <v>99</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.9</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>76</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="17">
+        <v>25</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="18">
         <v>0</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>81</v>
+      <c r="A16" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="17">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>67</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.7</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D23" s="17">
         <v>0</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.3</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="D29" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D31" s="17">
         <v>0</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="B34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="16">
         <v>12.9</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="16">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="17">
-        <v>8.4</v>
-      </c>
-      <c r="E35" s="1"/>
+      <c r="A35" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17">
+        <v>8.4</v>
+      </c>
+      <c r="E36" s="17">
+        <v>5.6</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="17">
+        <v>15.7</v>
+      </c>
+      <c r="E37" s="17">
+        <v>11.4</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="17">
-        <v>15.7</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="17">
-        <v>14.4</v>
-      </c>
-      <c r="E38" s="1"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D39" s="17">
-        <v>13.6</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>14.4</v>
+      </c>
+      <c r="E39" s="17">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D40" s="17">
-        <v>11.5</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>13.6</v>
+      </c>
+      <c r="E40" s="17">
+        <v>19.5</v>
+      </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D41" s="17">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D42" s="17">
-        <v>18.3</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>101</v>
+      </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D43" s="17">
+        <v>18.3</v>
+      </c>
+      <c r="E43" s="17">
+        <v>7.5</v>
+      </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>29</v>
+        <v>76</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="17">
+        <v>25</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="17">
         <v>11.6</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="17">
-        <v>5.3</v>
-      </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="17">
+        <v>8.4</v>
+      </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="17">
+        <v>5.3</v>
+      </c>
+      <c r="E46" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="17">
+        <v>13.2</v>
+      </c>
+      <c r="E47" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="17">
-        <v>13.2</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="1"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="17">
-        <v>30.3</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D50" s="17">
-        <v>21.3</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>30.3</v>
+      </c>
+      <c r="E50" s="17">
+        <v>26</v>
+      </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D51" s="17">
-        <v>6</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>21.3</v>
+      </c>
+      <c r="E51" s="17">
+        <v>17.600000000000001</v>
+      </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="17">
+        <v>6</v>
+      </c>
+      <c r="E52" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="E53" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="17">
-        <v>2.6</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="1"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="17">
+        <v>12.7</v>
+      </c>
+      <c r="E56" s="17">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="17">
-        <v>12.7</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="17">
-        <v>11.8</v>
-      </c>
-      <c r="E57" s="1"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="D58" s="17">
-        <v>19.7</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>11.8</v>
+      </c>
+      <c r="E58" s="17">
+        <v>19.399999999999999</v>
+      </c>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D59" s="17">
-        <v>14.4</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>19.7</v>
+      </c>
+      <c r="E59" s="17">
+        <v>10.1</v>
+      </c>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="17">
+        <v>14.4</v>
+      </c>
+      <c r="E60" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="E61" s="17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="17">
-        <v>12.5</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="21">
+      <c r="D62" s="21">
         <v>6.4</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="21">
+        <v>2.4</v>
+      </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+    <row r="63" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4307,6 +4439,14 @@
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
     </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
